--- a/docs/excel_xlsx.xlsx
+++ b/docs/excel_xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charvetdigitalmedia-my.sharepoint.com/personal/m_nginn_charvet-digitalmedia_com/Documents/Documents/Jeux de données TEST/fichiers_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2CE5A99-CA4C-4EFE-9D4E-56DAC99F69F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{C2CE5A99-CA4C-4EFE-9D4E-56DAC99F69F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8032AAF1-B7EA-4339-A9B9-C0CB7DE2361E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AA5D552A-60EC-45C0-8A45-07B9BFA8748F}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="38700" windowHeight="15375" xr2:uid="{AA5D552A-60EC-45C0-8A45-07B9BFA8748F}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
-    <t>Donnée A1</t>
-  </si>
-  <si>
     <t>Donnée A2</t>
   </si>
   <si>
@@ -120,6 +117,9 @@
   </si>
   <si>
     <t>Donnée C10</t>
+  </si>
+  <si>
+    <t>Donnée A1, voici des modifications. Il est 11h.</t>
   </si>
 </sst>
 </file>
@@ -494,119 +494,119 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel_xlsx.xlsx
+++ b/docs/excel_xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charvetdigitalmedia-my.sharepoint.com/personal/m_nginn_charvet-digitalmedia_com/Documents/Documents/Jeux de données TEST/fichiers_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{C2CE5A99-CA4C-4EFE-9D4E-56DAC99F69F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8032AAF1-B7EA-4339-A9B9-C0CB7DE2361E}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{C2CE5A99-CA4C-4EFE-9D4E-56DAC99F69F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1EE500D-ED30-4D2B-B7A0-C507E0742EFB}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="38700" windowHeight="15375" xr2:uid="{AA5D552A-60EC-45C0-8A45-07B9BFA8748F}"/>
+    <workbookView xWindow="21000" yWindow="5070" windowWidth="29085" windowHeight="16965" xr2:uid="{AA5D552A-60EC-45C0-8A45-07B9BFA8748F}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -68,9 +68,6 @@
     <t>Donnée B1</t>
   </si>
   <si>
-    <t>Donnée B2</t>
-  </si>
-  <si>
     <t>Donnée B3</t>
   </si>
   <si>
@@ -98,9 +95,6 @@
     <t>Donnée C2</t>
   </si>
   <si>
-    <t>Donnée C3</t>
-  </si>
-  <si>
     <t>Donnée C4</t>
   </si>
   <si>
@@ -120,6 +114,12 @@
   </si>
   <si>
     <t>Donnée A1, voici des modifications. Il est 11h.</t>
+  </si>
+  <si>
+    <t>Donnée B2, nouvelle modif 11h40</t>
+  </si>
+  <si>
+    <t>Push à 11h50</t>
   </si>
 </sst>
 </file>
@@ -172,6 +172,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -494,20 +498,20 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
         <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -515,10 +519,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -526,10 +530,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -537,10 +541,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -551,7 +555,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -559,10 +563,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -570,10 +574,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -581,10 +585,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -592,10 +596,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -603,10 +607,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel_xlsx.xlsx
+++ b/docs/excel_xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charvetdigitalmedia-my.sharepoint.com/personal/m_nginn_charvet-digitalmedia_com/Documents/Documents/Jeux de données TEST/fichiers_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{C2CE5A99-CA4C-4EFE-9D4E-56DAC99F69F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1EE500D-ED30-4D2B-B7A0-C507E0742EFB}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{C2CE5A99-CA4C-4EFE-9D4E-56DAC99F69F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6191DA6C-FCBC-48F8-B655-ED82C18CA7A2}"/>
   <bookViews>
-    <workbookView xWindow="21000" yWindow="5070" windowWidth="29085" windowHeight="16965" xr2:uid="{AA5D552A-60EC-45C0-8A45-07B9BFA8748F}"/>
+    <workbookView xWindow="9015" yWindow="6705" windowWidth="29085" windowHeight="13815" xr2:uid="{AA5D552A-60EC-45C0-8A45-07B9BFA8748F}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Donnée A2</t>
   </si>
@@ -113,13 +113,19 @@
     <t>Donnée C10</t>
   </si>
   <si>
-    <t>Donnée A1, voici des modifications. Il est 11h.</t>
-  </si>
-  <si>
-    <t>Donnée B2, nouvelle modif 11h40</t>
-  </si>
-  <si>
-    <t>Push à 11h50</t>
+    <t>Donnée A1</t>
+  </si>
+  <si>
+    <t>Donnée B2</t>
+  </si>
+  <si>
+    <t>Donnée C3</t>
+  </si>
+  <si>
+    <t>Donnée B5</t>
+  </si>
+  <si>
+    <t>Donnée C5</t>
   </si>
 </sst>
 </file>
@@ -498,7 +504,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,10 +558,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">

--- a/docs/excel_xlsx.xlsx
+++ b/docs/excel_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charvetdigitalmedia-my.sharepoint.com/personal/m_nginn_charvet-digitalmedia_com/Documents/Documents/Jeux de données TEST/fichiers_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{C2CE5A99-CA4C-4EFE-9D4E-56DAC99F69F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6191DA6C-FCBC-48F8-B655-ED82C18CA7A2}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{C2CE5A99-CA4C-4EFE-9D4E-56DAC99F69F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC188A3C-1500-4F94-819B-947141E80A20}"/>
   <bookViews>
     <workbookView xWindow="9015" yWindow="6705" windowWidth="29085" windowHeight="13815" xr2:uid="{AA5D552A-60EC-45C0-8A45-07B9BFA8748F}"/>
   </bookViews>
@@ -113,9 +113,6 @@
     <t>Donnée C10</t>
   </si>
   <si>
-    <t>Donnée A1</t>
-  </si>
-  <si>
     <t>Donnée B2</t>
   </si>
   <si>
@@ -126,6 +123,9 @@
   </si>
   <si>
     <t>Donnée C5</t>
+  </si>
+  <si>
+    <t>Donnée A1 - modif 12h10</t>
   </si>
 </sst>
 </file>
@@ -503,15 +503,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9003E496-CEE7-4405-8939-D6CF0F79EC57}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
         <v>9</v>
@@ -525,7 +523,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -539,7 +537,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -558,10 +556,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
         <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">

--- a/docs/excel_xlsx.xlsx
+++ b/docs/excel_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charvetdigitalmedia-my.sharepoint.com/personal/m_nginn_charvet-digitalmedia_com/Documents/Documents/Jeux de données TEST/fichiers_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{C2CE5A99-CA4C-4EFE-9D4E-56DAC99F69F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC188A3C-1500-4F94-819B-947141E80A20}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{C2CE5A99-CA4C-4EFE-9D4E-56DAC99F69F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4406C759-4EE9-4883-BBC4-E04038229426}"/>
   <bookViews>
     <workbookView xWindow="9015" yWindow="6705" windowWidth="29085" windowHeight="13815" xr2:uid="{AA5D552A-60EC-45C0-8A45-07B9BFA8748F}"/>
   </bookViews>
@@ -113,9 +113,6 @@
     <t>Donnée C10</t>
   </si>
   <si>
-    <t>Donnée B2</t>
-  </si>
-  <si>
     <t>Donnée C3</t>
   </si>
   <si>
@@ -126,6 +123,9 @@
   </si>
   <si>
     <t>Donnée A1 - modif 12h10</t>
+  </si>
+  <si>
+    <t>Donnée B2 - modif 14h10</t>
   </si>
 </sst>
 </file>
@@ -503,13 +503,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9003E496-CEE7-4405-8939-D6CF0F79EC57}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
         <v>9</v>
@@ -523,7 +525,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -537,7 +539,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -556,10 +558,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
         <v>27</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">

--- a/docs/excel_xlsx.xlsx
+++ b/docs/excel_xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charvetdigitalmedia-my.sharepoint.com/personal/m_nginn_charvet-digitalmedia_com/Documents/Documents/Jeux de données TEST/fichiers_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{C2CE5A99-CA4C-4EFE-9D4E-56DAC99F69F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4406C759-4EE9-4883-BBC4-E04038229426}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{C2CE5A99-CA4C-4EFE-9D4E-56DAC99F69F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBFB7ACF-79B3-4553-AA66-5C73EF91B4B1}"/>
   <bookViews>
-    <workbookView xWindow="9015" yWindow="6705" windowWidth="29085" windowHeight="13815" xr2:uid="{AA5D552A-60EC-45C0-8A45-07B9BFA8748F}"/>
+    <workbookView xWindow="14325" yWindow="5205" windowWidth="29085" windowHeight="13815" xr2:uid="{AA5D552A-60EC-45C0-8A45-07B9BFA8748F}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -113,9 +113,6 @@
     <t>Donnée C10</t>
   </si>
   <si>
-    <t>Donnée C3</t>
-  </si>
-  <si>
     <t>Donnée B5</t>
   </si>
   <si>
@@ -126,6 +123,9 @@
   </si>
   <si>
     <t>Donnée B2 - modif 14h10</t>
+  </si>
+  <si>
+    <t>Donnée C3 - modif 15h15</t>
   </si>
 </sst>
 </file>
@@ -504,14 +504,14 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
         <v>9</v>
@@ -525,7 +525,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -539,7 +539,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -558,10 +558,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
         <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">

--- a/docs/excel_xlsx.xlsx
+++ b/docs/excel_xlsx.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charvetdigitalmedia-my.sharepoint.com/personal/m_nginn_charvet-digitalmedia_com/Documents/Documents/Jeux de données TEST/fichiers_excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charvetdigitalmedia-my.sharepoint.com/personal/m_nginn_charvet-digitalmedia_com/Documents/Documents/jdd/fichiers_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{C2CE5A99-CA4C-4EFE-9D4E-56DAC99F69F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBFB7ACF-79B3-4553-AA66-5C73EF91B4B1}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{C2CE5A99-CA4C-4EFE-9D4E-56DAC99F69F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC1C3FD0-6F7A-41C8-AEC9-FE859E9D2FB7}"/>
   <bookViews>
-    <workbookView xWindow="14325" yWindow="5205" windowWidth="29085" windowHeight="13815" xr2:uid="{AA5D552A-60EC-45C0-8A45-07B9BFA8748F}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9024" xr2:uid="{AA5D552A-60EC-45C0-8A45-07B9BFA8748F}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -119,13 +119,13 @@
     <t>Donnée C5</t>
   </si>
   <si>
-    <t>Donnée A1 - modif 12h10</t>
-  </si>
-  <si>
-    <t>Donnée B2 - modif 14h10</t>
-  </si>
-  <si>
-    <t>Donnée C3 - modif 15h15</t>
+    <t xml:space="preserve">Donnée A1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Donnée C3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Donnée B2 </t>
   </si>
 </sst>
 </file>
@@ -504,12 +504,12 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -520,18 +520,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -539,10 +539,10 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -553,7 +553,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -564,7 +564,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -575,7 +575,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -586,7 +586,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -597,7 +597,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -608,7 +608,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -621,5 +621,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{7984079A-AEBC-4BF4-8AB6-3E71A05B5FFB}">
+          <x14:colorSeries theme="3" tint="0.499984740745262"/>
+          <x14:colorNegative theme="1" tint="0.249977111117893"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="1" tint="0.249977111117893"/>
+          <x14:colorFirst theme="1" tint="0.249977111117893"/>
+          <x14:colorLast theme="1" tint="0.249977111117893"/>
+          <x14:colorHigh theme="1" tint="0.249977111117893"/>
+          <x14:colorLow theme="1" tint="0.249977111117893"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Feuil1!A:A</xm:f>
+              <xm:sqref>C11</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/docs/excel_xlsx.xlsx
+++ b/docs/excel_xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charvetdigitalmedia-my.sharepoint.com/personal/m_nginn_charvet-digitalmedia_com/Documents/Documents/jdd/fichiers_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{C2CE5A99-CA4C-4EFE-9D4E-56DAC99F69F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC1C3FD0-6F7A-41C8-AEC9-FE859E9D2FB7}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="8_{C2CE5A99-CA4C-4EFE-9D4E-56DAC99F69F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C41F985-360A-48E8-B74D-65F150059B46}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9024" xr2:uid="{AA5D552A-60EC-45C0-8A45-07B9BFA8748F}"/>
+    <workbookView xWindow="31125" yWindow="-825" windowWidth="17280" windowHeight="11175" xr2:uid="{AA5D552A-60EC-45C0-8A45-07B9BFA8748F}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -119,13 +119,13 @@
     <t>Donnée C5</t>
   </si>
   <si>
-    <t xml:space="preserve">Donnée A1 </t>
-  </si>
-  <si>
     <t xml:space="preserve">Donnée C3 </t>
   </si>
   <si>
     <t xml:space="preserve">Donnée B2 </t>
+  </si>
+  <si>
+    <t>modif 10h30</t>
   </si>
 </sst>
 </file>
@@ -503,15 +503,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9003E496-CEE7-4405-8939-D6CF0F79EC57}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
         <v>9</v>
@@ -525,7 +523,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -539,7 +537,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">

--- a/docs/excel_xlsx.xlsx
+++ b/docs/excel_xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charvetdigitalmedia-my.sharepoint.com/personal/m_nginn_charvet-digitalmedia_com/Documents/Documents/jdd/fichiers_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{C2CE5A99-CA4C-4EFE-9D4E-56DAC99F69F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C41F985-360A-48E8-B74D-65F150059B46}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{C2CE5A99-CA4C-4EFE-9D4E-56DAC99F69F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1947B138-6E24-4D9E-BDFC-5284BDE0E13D}"/>
   <bookViews>
-    <workbookView xWindow="31125" yWindow="-825" windowWidth="17280" windowHeight="11175" xr2:uid="{AA5D552A-60EC-45C0-8A45-07B9BFA8748F}"/>
+    <workbookView xWindow="35505" yWindow="-4875" windowWidth="17280" windowHeight="11175" xr2:uid="{AA5D552A-60EC-45C0-8A45-07B9BFA8748F}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -122,10 +122,10 @@
     <t xml:space="preserve">Donnée C3 </t>
   </si>
   <si>
-    <t xml:space="preserve">Donnée B2 </t>
-  </si>
-  <si>
     <t>modif 10h30</t>
+  </si>
+  <si>
+    <t>modif 11H30</t>
   </si>
 </sst>
 </file>
@@ -503,13 +503,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9003E496-CEE7-4405-8939-D6CF0F79EC57}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
         <v>9</v>
@@ -523,7 +525,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
